--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3184320.879752418</v>
+        <v>3259850.549417221</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>210.4979324777802</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>5.340253406636514</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -792,7 +794,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888687</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -826,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>134.6751203255735</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>22.11041309544165</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>219.2715106616308</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>249.2819505385575</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1057,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>52.10844059186277</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>99.90187484148903</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>96.36163317610307</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>97.12166249623215</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>83.3476682615137</v>
+        <v>95.30104224937782</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1540,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>132.4314103685666</v>
       </c>
       <c r="Y13" t="n">
-        <v>188.1607094910708</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1777,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>26.99319854866546</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>157.2425576766696</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2050,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>169.7438101404424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>122.65197883716</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2333,10 +2335,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>195.8155841663249</v>
+        <v>25.37433807241459</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2558,10 +2560,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,22 +2715,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151935</v>
+        <v>20.26317694825408</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>55.05025988586971</v>
       </c>
       <c r="V31" t="n">
-        <v>169.7438101404427</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3089,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>181.5016905511568</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3317,7 +3319,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385022</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3326,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174145</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3475,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>115.526976800218</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3509,10 +3511,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U40" t="n">
-        <v>170.4824349897588</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3797,7 +3799,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701364</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3907,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>127.4321567831325</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>222.2435721011143</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648052005</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
         <v>251.078595249801</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4141,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>3.347695664763696</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>283.1192119576602</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1216.807289433107</v>
+        <v>1924.457674141024</v>
       </c>
       <c r="C2" t="n">
-        <v>1216.807289433107</v>
+        <v>1555.495157200612</v>
       </c>
       <c r="D2" t="n">
-        <v>1216.807289433107</v>
+        <v>1197.229458593861</v>
       </c>
       <c r="E2" t="n">
-        <v>831.0190368348624</v>
+        <v>811.4412059956171</v>
       </c>
       <c r="F2" t="n">
-        <v>420.0331320452548</v>
+        <v>804.4957052464136</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>386.5318971446005</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>59.33717718060336</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4343,37 +4345,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="Y2" t="n">
-        <v>1603.407129497228</v>
+        <v>2311.057514205145</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M3" t="n">
         <v>1313.210296315296</v>
@@ -4428,22 +4430,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406186</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>365.6939024587813</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>365.6939024587813</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>365.6939024587813</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>365.6939024587813</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>76.27673242182067</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1104.379069117473</v>
+        <v>877.172715966035</v>
       </c>
       <c r="C5" t="n">
-        <v>1104.379069117473</v>
+        <v>877.172715966035</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>877.172715966035</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>877.172715966035</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4577,16 +4579,16 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4595,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="W5" t="n">
-        <v>1881.118241157406</v>
+        <v>1640.777806202927</v>
       </c>
       <c r="X5" t="n">
-        <v>1881.118241157406</v>
+        <v>1267.312047941847</v>
       </c>
       <c r="Y5" t="n">
-        <v>1490.978909181595</v>
+        <v>877.172715966035</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>154.8539665087372</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>154.8539665087372</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1780.41262192169</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="C8" t="n">
-        <v>1780.41262192169</v>
+        <v>1320.241224882541</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>961.9755262757901</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>576.1872736775458</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>165.2013688879383</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>151.2779648265292</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>151.2779648265292</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2544.017712158582</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2544.017712158582</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>2170.551953897502</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>1780.41262192169</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4902,22 +4904,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>295.8809182883532</v>
+        <v>332.1920961943574</v>
       </c>
       <c r="C10" t="n">
-        <v>295.8809182883532</v>
+        <v>332.1920961943574</v>
       </c>
       <c r="D10" t="n">
-        <v>295.8809182883532</v>
+        <v>332.1920961943574</v>
       </c>
       <c r="E10" t="n">
-        <v>295.8809182883532</v>
+        <v>332.1920961943574</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942401</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942401</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V10" t="n">
-        <v>295.8809182883532</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W10" t="n">
-        <v>295.8809182883532</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="X10" t="n">
-        <v>295.8809182883532</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="Y10" t="n">
-        <v>295.8809182883532</v>
+        <v>513.8405610245972</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5033,16 +5035,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5051,37 +5053,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5115,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C13" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D13" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909233</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1164.055751909233</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655738</v>
+        <v>909.3712637033465</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286132</v>
+        <v>619.9540936663859</v>
       </c>
       <c r="X13" t="n">
-        <v>437.6964226305959</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="Y13" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,25 +5263,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,34 +5296,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5343,25 +5345,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M15" t="n">
         <v>1228.513823643586</v>
@@ -5373,7 +5375,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333286</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V16" t="n">
-        <v>844.0280401273991</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W16" t="n">
-        <v>554.6108700904385</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X16" t="n">
-        <v>527.3450129705744</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y16" t="n">
-        <v>527.3450129705744</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5498,25 +5500,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,13 +5527,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5592,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>3617.986260256746</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>4571.72593422785</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>4317.041446021964</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>4027.624275985003</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>3799.634725086986</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>3799.634725086986</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,25 +5737,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,13 +5764,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5786,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>2649.889045452863</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>3263.786115209751</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>3571.106248489713</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>3900.968876153745</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5938,22 +5940,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W22" t="n">
-        <v>441.900558318119</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5990,16 +5992,16 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6011,28 +6013,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,13 +6056,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,19 +6071,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3606.045341414585</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C25" t="n">
-        <v>3606.045341414585</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D25" t="n">
-        <v>3606.045341414585</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3606.045341414585</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4637.069157803799</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>4347.940519017357</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>4093.25603081147</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>3803.838860774509</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>3606.045341414585</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="Y25" t="n">
-        <v>3606.045341414585</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
@@ -6221,55 +6223,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3459.155393916676</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C28" t="n">
-        <v>3459.155393916676</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D28" t="n">
-        <v>3459.155393916676</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E28" t="n">
-        <v>3459.155393916676</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916676</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916676</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4660.934562929846</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4437.149147719352</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>4231.246603057541</v>
+        <v>1478.448415054615</v>
       </c>
       <c r="V28" t="n">
-        <v>3976.562114851654</v>
+        <v>1478.448415054615</v>
       </c>
       <c r="W28" t="n">
-        <v>3687.144944814693</v>
+        <v>1478.448415054615</v>
       </c>
       <c r="X28" t="n">
-        <v>3459.155393916676</v>
+        <v>1250.458864156598</v>
       </c>
       <c r="Y28" t="n">
-        <v>3459.155393916676</v>
+        <v>1029.666285013068</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6460,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6479,13 +6481,13 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6497,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>233.7852434110083</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>644.675512255521</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619851</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6637,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765191</v>
+        <v>1219.524532230368</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952638</v>
+        <v>964.8400440244812</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>964.8400440244812</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028587</v>
+        <v>964.8400440244812</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>744.0474648809511</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6713,37 +6715,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6776,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701562</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>1088.787142923176</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1396.107276203137</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1725.96990386717</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>2005.509969085867</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6874,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011507</v>
+        <v>1315.581229597138</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952638</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028587</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,10 +6922,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6932,55 +6934,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>644.675512255521</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>891.4406401619851</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028589</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028589</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028589</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028589</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028589</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7111,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347409</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609669</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>731.31772835508</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W37" t="n">
-        <v>441.9005583181194</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X37" t="n">
-        <v>213.9110074201021</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028589</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
         <v>904.3190116155888</v>
@@ -7169,7 +7171,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7184,7 +7186,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7196,28 +7198,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1088.787142923176</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1396.107276203137</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1725.96990386717</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2005.509969085867</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4058.219498354871</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>4860.854573014293</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U40" t="n">
-        <v>4688.650093226658</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V40" t="n">
-        <v>4688.650093226658</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W40" t="n">
-        <v>4688.650093226658</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X40" t="n">
-        <v>4460.660542328641</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
-        <v>4239.867963185111</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7393,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7433,16 +7435,16 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
         <v>3931.29497012173</v>
@@ -7485,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>225.9364417462783</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C43" t="n">
-        <v>225.9364417462783</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D43" t="n">
-        <v>225.9364417462783</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E43" t="n">
-        <v>225.9364417462783</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>225.9364417462783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247865</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>964.1357418247865</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>964.1357418247865</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W43" t="n">
-        <v>674.7185717878258</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X43" t="n">
-        <v>446.7290208898085</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.9364417462783</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="44">
@@ -7625,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7661,16 +7663,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231263</v>
@@ -7679,16 +7681,16 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,25 +7724,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>644.675512255521</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>891.4406401619851</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3459.155393916676</v>
+        <v>3607.068487499068</v>
       </c>
       <c r="C46" t="n">
-        <v>3459.155393916676</v>
+        <v>3607.068487499068</v>
       </c>
       <c r="D46" t="n">
-        <v>3459.155393916676</v>
+        <v>3607.068487499068</v>
       </c>
       <c r="E46" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F46" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380585</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625197</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636326</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403509</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431057</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436454</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042137</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R46" t="n">
-        <v>4857.473062241805</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S46" t="n">
-        <v>4857.473062241805</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T46" t="n">
-        <v>4633.68764703131</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U46" t="n">
-        <v>4633.68764703131</v>
+        <v>4151.170145741916</v>
       </c>
       <c r="V46" t="n">
-        <v>4379.003158825423</v>
+        <v>3896.485657536029</v>
       </c>
       <c r="W46" t="n">
-        <v>4089.585988788463</v>
+        <v>3607.068487499068</v>
       </c>
       <c r="X46" t="n">
-        <v>3861.596437890445</v>
+        <v>3607.068487499068</v>
       </c>
       <c r="Y46" t="n">
-        <v>3640.803858746915</v>
+        <v>3607.068487499068</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747117</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9021,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9240,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9410,7 +9412,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119847</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9480,10 +9482,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,13 +9494,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>392.1113620226434</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>96.0374492781462</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,28 +10430,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>295.3773510571265</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10665,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>234.411650950316</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,10 +10831,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119833</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10905,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>169.2863157167178</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.096615172073</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11136,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>234.411650950316</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23428,10 +23430,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>93.27824502047054</v>
       </c>
       <c r="Y13" t="n">
-        <v>30.42394386102401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23665,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23707,7 +23709,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7164568403717</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>10.00426342195823</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23938,16 +23940,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>82.39383318338562</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24178,7 +24180,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>103.0576765518772</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,16 +24366,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>29.89407122271223</v>
+        <v>200.3353173166226</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24601,22 +24603,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338389</v>
+        <v>265.9741754503233</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24886,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>231.1870925127076</v>
       </c>
       <c r="V31" t="n">
-        <v>82.39383318338528</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25123,22 +25125,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338523</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>104.7356618474205</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25324,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25363,10 +25365,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>103.0576765518768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25561,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,16 +25602,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U40" t="n">
-        <v>115.7549174088186</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25795,10 +25797,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>39.06141168024504</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>29.89407122271373</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26029,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>106.6166567390291</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>3.118140440917159</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>730532.6984801932</v>
+        <v>730532.6984801933</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>730532.6984801932</v>
+        <v>730532.698480193</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>730532.6984801932</v>
+        <v>730532.6984801933</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>730532.6984801932</v>
+        <v>730532.6984801933</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>730532.6984801933</v>
+        <v>730532.6984801932</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>730532.6984801933</v>
+        <v>730532.6984801932</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>730532.6984801933</v>
+        <v>730532.6984801932</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>730532.6984801933</v>
+        <v>730532.6984801932</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="C2" t="n">
+        <v>677359.4601380333</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.4601380334</v>
       </c>
-      <c r="D2" t="n">
-        <v>677359.4601380333</v>
-      </c>
       <c r="E2" t="n">
+        <v>645197.9485672193</v>
+      </c>
+      <c r="F2" t="n">
         <v>645197.9485672195</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>645197.9485672193</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645197.9485672192</v>
+      </c>
+      <c r="I2" t="n">
+        <v>645197.9485672192</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645197.9485672192</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645197.9485672192</v>
+      </c>
+      <c r="L2" t="n">
         <v>645197.9485672197</v>
-      </c>
-      <c r="G2" t="n">
-        <v>645197.9485672194</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645197.9485672194</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645197.9485672197</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645197.9485672195</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645197.9485672193</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645197.9485672192</v>
       </c>
       <c r="M2" t="n">
         <v>645197.9485672195</v>
       </c>
       <c r="N2" t="n">
+        <v>645197.9485672198</v>
+      </c>
+      <c r="O2" t="n">
+        <v>645197.9485672197</v>
+      </c>
+      <c r="P2" t="n">
         <v>645197.9485672195</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645197.9485672194</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645197.9485672197</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145447</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26423,43 @@
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007546</v>
       </c>
       <c r="G4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="H4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="I4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7916.731656007482</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="P4" t="n">
         <v>7916.731656007483</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7916.731656007482</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7916.731656007482</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7916.731656007416</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7916.731656007481</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7916.731656007413</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7916.731656007401</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871665</v>
-      </c>
       <c r="L5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-143384.5458558412</v>
+        <v>-143384.5458558416</v>
       </c>
       <c r="C6" t="n">
+        <v>446583.333358703</v>
+      </c>
+      <c r="D6" t="n">
         <v>446583.3333587031</v>
       </c>
-      <c r="D6" t="n">
-        <v>446583.3333587029</v>
-      </c>
       <c r="E6" t="n">
-        <v>20133.85448559932</v>
+        <v>20133.85448559943</v>
       </c>
       <c r="F6" t="n">
+        <v>545293.8909624951</v>
+      </c>
+      <c r="G6" t="n">
+        <v>545293.8909624952</v>
+      </c>
+      <c r="H6" t="n">
+        <v>545293.8909624951</v>
+      </c>
+      <c r="I6" t="n">
+        <v>545293.8909624951</v>
+      </c>
+      <c r="J6" t="n">
+        <v>368870.6717699021</v>
+      </c>
+      <c r="K6" t="n">
+        <v>545293.8909624951</v>
+      </c>
+      <c r="L6" t="n">
         <v>545293.8909624956</v>
       </c>
-      <c r="G6" t="n">
-        <v>545293.8909624954</v>
-      </c>
-      <c r="H6" t="n">
-        <v>545293.8909624954</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="M6" t="n">
+        <v>410492.8757286584</v>
+      </c>
+      <c r="N6" t="n">
+        <v>545293.8909624957</v>
+      </c>
+      <c r="O6" t="n">
         <v>545293.8909624956</v>
       </c>
-      <c r="J6" t="n">
-        <v>368870.6717699024</v>
-      </c>
-      <c r="K6" t="n">
-        <v>545293.8909624952</v>
-      </c>
-      <c r="L6" t="n">
-        <v>545293.8909624951</v>
-      </c>
-      <c r="M6" t="n">
-        <v>410492.8757286583</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>545293.8909624955</v>
-      </c>
-      <c r="O6" t="n">
-        <v>545293.8909624955</v>
-      </c>
-      <c r="P6" t="n">
-        <v>545293.8909624957</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26820,7 +26822,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>203.2862375430148</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>146.5910628382247</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27546,19 +27548,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>10.74592769735776</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27597,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>203.5992422935955</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>135.4115309590522</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>157.5940952031539</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>96.50703242634958</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,16 +27830,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>125.8077805475481</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>55.56968306875818</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27910,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>230.6305959739028</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,19 +28022,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>62.07337976141754</v>
+        <v>50.12000577355343</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28393,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="15">
@@ -31045,43 +31047,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P2" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,25 +31223,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31753,46 +31755,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,43 +31834,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P2" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>54.37527471535621</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34869,10 +34871,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35030,7 +35032,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35741,10 +35743,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36130,7 +36132,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O20" t="n">
         <v>713.1546070951472</v>
@@ -36200,10 +36202,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
@@ -36212,13 +36214,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>674.4750642637515</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36439,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>137.9476282330529</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,7 +36928,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37008,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>544.6350560131509</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37245,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,13 +37387,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>384.9870895382552</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37400,13 +37402,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37482,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408111</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,13 +37624,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>418.5440206727421</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37637,13 +37639,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37719,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415071</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734238</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37956,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,13 +38098,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>384.9870895382552</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38111,7 +38113,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3259850.549417221</v>
+        <v>3252833.534525512</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -670,7 +670,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>5.340253406636514</v>
+        <v>141.4106407312801</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -794,7 +794,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888687</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -861,31 +861,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>22.11041309544165</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>38.06452392610819</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>197.6440387445741</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>249.2819505385575</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>47.14167849255895</v>
       </c>
       <c r="D7" t="n">
-        <v>52.10844059186277</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>304.270218931142</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>96.36163317610307</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1293,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>95.30104224937782</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>5.107731335945625</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>132.4314103685666</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634824</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>95.03056730070914</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>224.895256723152</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206845</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>157.2425576766696</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>25.37433807241459</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>20.26317694825408</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>88.36919139161209</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>55.05025988586971</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="U34" t="n">
-        <v>181.5016905511568</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385022</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.64843562452406</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>146.2787299119464</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>58.72849219531248</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>222.2435721011143</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>283.1192119576602</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1924.457674141024</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="C2" t="n">
-        <v>1555.495157200612</v>
+        <v>2096.980396922474</v>
       </c>
       <c r="D2" t="n">
-        <v>1197.229458593861</v>
+        <v>1738.714698315724</v>
       </c>
       <c r="E2" t="n">
-        <v>811.4412059956171</v>
+        <v>1352.926445717479</v>
       </c>
       <c r="F2" t="n">
-        <v>804.4957052464136</v>
+        <v>941.9405409278718</v>
       </c>
       <c r="G2" t="n">
-        <v>386.5318971446005</v>
+        <v>523.9767328260587</v>
       </c>
       <c r="H2" t="n">
-        <v>59.33717718060336</v>
+        <v>196.7820128620615</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4345,37 +4345,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>2311.057514205145</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>2311.057514205145</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y2" t="n">
-        <v>2311.057514205145</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615929</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572649</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406186</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587813</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T4" t="n">
-        <v>365.6939024587813</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U4" t="n">
-        <v>365.6939024587813</v>
+        <v>261.391796148808</v>
       </c>
       <c r="V4" t="n">
-        <v>365.6939024587813</v>
+        <v>261.391796148808</v>
       </c>
       <c r="W4" t="n">
-        <v>76.27673242182067</v>
+        <v>261.391796148808</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036446</v>
+        <v>261.391796148808</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>877.172715966035</v>
+        <v>1018.506281012309</v>
       </c>
       <c r="C5" t="n">
-        <v>877.172715966035</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>877.172715966035</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>877.172715966035</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4585,10 +4585,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.546461473041</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.546461473041</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>1640.777806202927</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>1267.312047941847</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y5" t="n">
-        <v>877.172715966035</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="6">
@@ -4643,22 +4643,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>675.4941957298054</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>527.5811021474123</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1689.203741822952</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.241224882541</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>961.9755262757901</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>576.1872736775458</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>165.2013688879383</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>151.2779648265292</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>151.2779648265292</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X8" t="n">
-        <v>2465.942913862886</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="Y8" t="n">
-        <v>2075.803581887074</v>
+        <v>1899.21241430279</v>
       </c>
     </row>
     <row r="9">
@@ -4859,55 +4859,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>332.1920961943574</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C10" t="n">
-        <v>332.1920961943574</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D10" t="n">
-        <v>332.1920961943574</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>332.1920961943574</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>513.8405610245972</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,10 +5026,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5038,52 +5038,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636247</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C13" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1493.756945976139</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909233</v>
+        <v>1269.971530765645</v>
       </c>
       <c r="U13" t="n">
-        <v>1164.055751909233</v>
+        <v>980.8428919792032</v>
       </c>
       <c r="V13" t="n">
-        <v>909.3712637033465</v>
+        <v>726.1584037733163</v>
       </c>
       <c r="W13" t="n">
-        <v>619.9540936663859</v>
+        <v>436.7412337363557</v>
       </c>
       <c r="X13" t="n">
-        <v>486.1849922839954</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y13" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="14">
@@ -5275,55 +5275,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515099</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.70982261913</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899129</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="15">
@@ -5345,37 +5345,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636248</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028583</v>
+        <v>1089.278254829646</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028583</v>
+        <v>920.342071901739</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028583</v>
+        <v>770.2254324894033</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028583</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>1271.749344574921</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V16" t="n">
-        <v>1017.064856369034</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W16" t="n">
-        <v>727.647686332073</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="X16" t="n">
-        <v>499.6581354340557</v>
+        <v>1270.926719659886</v>
       </c>
       <c r="Y16" t="n">
-        <v>278.8655562905255</v>
+        <v>1270.926719659886</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3617.986260256746</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C19" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D19" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E19" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F19" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G19" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>4860.854573014292</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>4571.72593422785</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V19" t="n">
-        <v>4317.041446021964</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W19" t="n">
-        <v>4027.624275985003</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X19" t="n">
-        <v>3799.634725086986</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y19" t="n">
-        <v>3799.634725086986</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="20">
@@ -5731,40 +5731,40 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514095</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5776,22 +5776,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5828,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y22" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6004,37 +6004,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W25" t="n">
-        <v>441.900558318119</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X25" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6226,28 +6226,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6293,13 +6293,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6308,25 +6308,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1029.666285013068</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C28" t="n">
-        <v>860.7301020851612</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D28" t="n">
-        <v>710.6134626728254</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U28" t="n">
-        <v>1478.448415054615</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V28" t="n">
-        <v>1478.448415054615</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W28" t="n">
-        <v>1478.448415054615</v>
+        <v>642.0559188686032</v>
       </c>
       <c r="X28" t="n">
-        <v>1250.458864156598</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="Y28" t="n">
-        <v>1029.666285013068</v>
+        <v>414.0663679705859</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6457,34 +6457,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6530,13 +6530,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6545,19 +6545,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U31" t="n">
-        <v>1219.524532230368</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>964.8400440244812</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>964.8400440244812</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>964.8400440244812</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>744.0474648809511</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
@@ -6724,28 +6724,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U34" t="n">
-        <v>1315.581229597138</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V34" t="n">
-        <v>1060.896741391251</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W34" t="n">
-        <v>1060.896741391251</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>1060.896741391251</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>1060.896741391251</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6922,10 +6922,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6934,34 +6934,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7168,34 +7168,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7241,13 +7241,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7256,19 +7256,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,28 +7350,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1379.229518531123</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U40" t="n">
-        <v>1090.100879744681</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V40" t="n">
-        <v>835.416391538794</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="W40" t="n">
-        <v>545.9992215018333</v>
+        <v>465.7659634441658</v>
       </c>
       <c r="X40" t="n">
         <v>318.0096706038159</v>
@@ -7390,49 +7390,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7478,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7493,25 +7493,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>244.1070389581962</v>
+        <v>268.0733921265328</v>
       </c>
       <c r="C43" t="n">
-        <v>244.1070389581962</v>
+        <v>268.0733921265328</v>
       </c>
       <c r="D43" t="n">
-        <v>244.1070389581962</v>
+        <v>268.0733921265328</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581962</v>
+        <v>268.0733921265328</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>268.0733921265328</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="V43" t="n">
-        <v>761.5137598931742</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="W43" t="n">
-        <v>472.0965898562135</v>
+        <v>898.50398699832</v>
       </c>
       <c r="X43" t="n">
-        <v>244.1070389581962</v>
+        <v>670.5144361003026</v>
       </c>
       <c r="Y43" t="n">
-        <v>244.1070389581962</v>
+        <v>449.7218569567725</v>
       </c>
     </row>
     <row r="44">
@@ -7636,13 +7636,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7657,28 +7657,28 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,25 +7730,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3607.068487499068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>3607.068487499068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>3607.068487499068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>4437.14914771935</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U46" t="n">
-        <v>4151.170145741916</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>3896.485657536029</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>3607.068487499068</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>3607.068487499068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>3607.068487499068</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747117</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,10 +8306,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.409182577676</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119847</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571163</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>192.8130786476576</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>93.27824502047054</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>51.40339534586003</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>61.3420956754253</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>10.00426342195823</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23940,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>61.34209567542518</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,10 +24366,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>200.3353173166226</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24654,22 +24654,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>265.9741754503233</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>198.1538069449789</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>231.1870925127076</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25128,22 +25128,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="U34" t="n">
-        <v>104.7356618474205</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.8451328388535</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0576765518774</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>79.43092547709077</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>107.7650762680651</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>29.89407122271373</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>3.118140440917159</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>730532.6984801933</v>
+        <v>730532.6984801932</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>730532.698480193</v>
+        <v>730532.6984801932</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>730532.6984801933</v>
+        <v>730532.6984801932</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>730532.6984801933</v>
+        <v>730532.6984801932</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>730532.6984801932</v>
+        <v>730532.6984801933</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>730532.6984801932</v>
+        <v>730532.6984801933</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="C2" t="n">
         <v>677359.4601380333</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
+        <v>645197.9485672197</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645197.9485672197</v>
+      </c>
+      <c r="I2" t="n">
+        <v>645197.9485672195</v>
+      </c>
+      <c r="J2" t="n">
         <v>645197.9485672193</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
         <v>645197.9485672195</v>
       </c>
-      <c r="G2" t="n">
-        <v>645197.9485672193</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645197.9485672192</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645197.9485672192</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645197.9485672192</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645197.9485672192</v>
-      </c>
       <c r="L2" t="n">
-        <v>645197.9485672197</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="M2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="N2" t="n">
         <v>645197.9485672195</v>
       </c>
-      <c r="N2" t="n">
-        <v>645197.9485672198</v>
-      </c>
       <c r="O2" t="n">
-        <v>645197.9485672197</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="P2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672194</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145447</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>3.998865167886834e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007546</v>
+        <v>7916.731656007401</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007413</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007481</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.73165600748</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007482</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007481</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.73165600748</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.73165600748</v>
       </c>
     </row>
     <row r="5">
@@ -26469,40 +26469,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-143384.5458558416</v>
+        <v>-143384.5458558415</v>
       </c>
       <c r="C6" t="n">
-        <v>446583.333358703</v>
+        <v>446583.3333587031</v>
       </c>
       <c r="D6" t="n">
-        <v>446583.3333587031</v>
+        <v>446583.3333587033</v>
       </c>
       <c r="E6" t="n">
-        <v>20133.85448559943</v>
+        <v>19159.26322587777</v>
       </c>
       <c r="F6" t="n">
-        <v>545293.8909624951</v>
+        <v>544319.2997027733</v>
       </c>
       <c r="G6" t="n">
-        <v>545293.8909624952</v>
+        <v>544319.2997027736</v>
       </c>
       <c r="H6" t="n">
-        <v>545293.8909624951</v>
+        <v>544319.2997027738</v>
       </c>
       <c r="I6" t="n">
-        <v>545293.8909624951</v>
+        <v>544319.2997027738</v>
       </c>
       <c r="J6" t="n">
-        <v>368870.6717699021</v>
+        <v>367896.0805101807</v>
       </c>
       <c r="K6" t="n">
-        <v>545293.8909624951</v>
+        <v>544319.2997027738</v>
       </c>
       <c r="L6" t="n">
-        <v>545293.8909624956</v>
+        <v>544319.2997027737</v>
       </c>
       <c r="M6" t="n">
-        <v>410492.8757286584</v>
+        <v>409518.2844689364</v>
       </c>
       <c r="N6" t="n">
-        <v>545293.8909624957</v>
+        <v>544319.2997027738</v>
       </c>
       <c r="O6" t="n">
-        <v>545293.8909624956</v>
+        <v>544319.2997027737</v>
       </c>
       <c r="P6" t="n">
-        <v>545293.8909624955</v>
+        <v>544319.2997027737</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26801,13 +26801,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>146.5910628382247</v>
+        <v>10.52067551358118</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27438,7 +27438,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>203.5992422935955</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>180.5201294259866</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>167.6288530264334</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>157.5940952031539</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="D7" t="n">
-        <v>96.50703242634958</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>78.46362273233859</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>55.56968306875818</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28013,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>46.83478528866331</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>50.12000577355343</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-1.800799509510398e-12</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -31047,43 +31047,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,25 +31223,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31755,46 +31755,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,43 +31834,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34871,10 +34871,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005177</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092005</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209231</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081124</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36928,7 +36928,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3252833.534525512</v>
+        <v>3257772.797374543</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800623</v>
       </c>
     </row>
     <row r="8">
@@ -752,7 +752,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>38.06452392610819</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.06452392610819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>197.6440387445741</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>77.75898906987835</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>47.14167849255895</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>134.8844947709057</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>304.270218931142</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,10 +1147,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>194.3877712926008</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>128.0537032279751</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498009</v>
+        <v>251.0785952498019</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>5.107731335945625</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>158.0300713929052</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634824</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>95.03056730070914</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>207.6951870029955</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206845</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>12.68762643336779</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056519</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>45.87676998162901</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151921</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2532,16 +2532,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>224.6476642436994</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056519</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710094</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2715,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>81.90355835744704</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>88.36919139161209</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -3006,19 +3006,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>203.8435192151922</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>127.7178027211463</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>25.81716416482062</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>118.4898845065123</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>132.4131904275033</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151921</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634821</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>20.58581884348087</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>146.2787299119464</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>58.72849219531248</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>147.2996323792578</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151922</v>
+        <v>226.2795693552305</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4421,13 +4421,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.942782082032</v>
+        <v>261.391796148808</v>
       </c>
       <c r="C4" t="n">
-        <v>222.942782082032</v>
+        <v>261.391796148808</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>261.391796148808</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>261.391796148808</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>261.391796148808</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>92.39199588714041</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>92.39199588714041</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4533,7 +4533,7 @@
         <v>261.391796148808</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.942782082032</v>
+        <v>261.391796148808</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1018.506281012309</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="C5" t="n">
-        <v>818.8658378359718</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D5" t="n">
-        <v>460.6001392292213</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4579,7 +4579,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2387.398480458968</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2387.398480458968</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2056.335593115397</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.111371249201</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="X5" t="n">
-        <v>1408.645612988121</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="Y5" t="n">
-        <v>1018.506281012309</v>
+        <v>1703.566937845283</v>
       </c>
     </row>
     <row r="6">
@@ -4622,73 +4622,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.4805193761945</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1156.75737613363</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224079</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2269.591629728946</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2269.591629728946</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2269.591629728946</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278601</v>
+        <v>1916.822974458832</v>
       </c>
       <c r="X8" t="n">
-        <v>2289.351746278601</v>
+        <v>1543.357216197752</v>
       </c>
       <c r="Y8" t="n">
-        <v>1899.21241430279</v>
+        <v>1543.357216197752</v>
       </c>
     </row>
     <row r="9">
@@ -4859,73 +4859,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.6879402326643</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="C10" t="n">
-        <v>156.7517573047574</v>
+        <v>331.2032503805102</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>331.2032503805102</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>183.2901567981171</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>183.2901567981171</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629041</v>
+        <v>500.1394333084171</v>
       </c>
     </row>
     <row r="11">
@@ -5032,28 +5032,28 @@
         <v>904.3190116155893</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643324</v>
@@ -5062,13 +5062,13 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5117,19 +5117,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918008</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>208.7516828383384</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="C13" t="n">
-        <v>208.7516828383384</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="D13" t="n">
-        <v>208.7516828383384</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1493.756945976139</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1269.971530765645</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>980.8428919792032</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>726.1584037733163</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W13" t="n">
-        <v>436.7412337363557</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X13" t="n">
-        <v>208.7516828383384</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="Y13" t="n">
-        <v>208.7516828383384</v>
+        <v>506.0596387883054</v>
       </c>
     </row>
     <row r="14">
@@ -5275,55 +5275,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823788</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515099</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899129</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,19 +5354,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277036</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L15" t="n">
         <v>534.5429807341677</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
         <v>2051.878056918008</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1089.278254829646</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>920.342071901739</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>770.2254324894033</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241958</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557903</v>
+        <v>709.4512536188996</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557903</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X16" t="n">
-        <v>1270.926719659886</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y16" t="n">
-        <v>1270.926719659886</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5512,13 +5512,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5536,31 +5536,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>223.1552313137082</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571611</v>
+        <v>634.0455001582209</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636253</v>
+        <v>880.810628064685</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
         <v>2317.834075963124</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471194</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1375.025382843599</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765191</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706323</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336716</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028589</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5743,7 +5743,7 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822459</v>
@@ -5752,13 +5752,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514095</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5828,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126483</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028589</v>
+        <v>441.5869961536299</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028589</v>
+        <v>441.5869961536299</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028589</v>
+        <v>291.4703567412942</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028589</v>
+        <v>143.557263158901</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028589</v>
+        <v>143.557263158901</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
         <v>507.4972331799365</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>844.0280401273998</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>844.0280401273998</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028589</v>
+        <v>844.0280401273998</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028589</v>
+        <v>623.2354609838696</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6010,31 +6010,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,19 +6056,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
         <v>674.428562457161</v>
@@ -6086,10 +6086,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765191</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706323</v>
+        <v>737.2189092553931</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336716</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6223,22 +6223,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643324</v>
@@ -6250,28 +6250,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6293,19 +6293,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
         <v>674.428562457161</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>414.0663679705859</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="C28" t="n">
-        <v>245.130185042679</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="D28" t="n">
-        <v>245.130185042679</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
         <v>507.4972331799365</v>
@@ -6423,13 +6423,13 @@
         <v>731.31772835508</v>
       </c>
       <c r="W28" t="n">
-        <v>642.0559188686032</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X28" t="n">
-        <v>414.0663679705859</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="Y28" t="n">
-        <v>414.0663679705859</v>
+        <v>441.9005583181194</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6457,10 +6457,10 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6530,19 +6530,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
         <v>674.428562457161</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
         <v>507.4972331799365</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6691,10 +6691,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
@@ -6715,13 +6715,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
@@ -6733,19 +6733,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>441.5869961536299</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>441.5869961536299</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>291.4703567412942</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028587</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>1379.229518531123</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U34" t="n">
-        <v>1090.100879744681</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="V34" t="n">
-        <v>835.416391538794</v>
+        <v>844.0280401273998</v>
       </c>
       <c r="W34" t="n">
-        <v>545.9992215018333</v>
+        <v>844.0280401273998</v>
       </c>
       <c r="X34" t="n">
-        <v>318.0096706038159</v>
+        <v>844.0280401273998</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>623.2354609838696</v>
       </c>
     </row>
     <row r="35">
@@ -6934,10 +6934,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514088</v>
@@ -6946,10 +6946,10 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643324</v>
@@ -6958,10 +6958,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126483</v>
@@ -7022,16 +7022,16 @@
         <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
         <v>507.4972331799365</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.210845262961</v>
+        <v>1054.170459633762</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011507</v>
+        <v>765.0418208473205</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952638</v>
+        <v>765.0418208473205</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>475.6246508103599</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7168,58 +7168,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="39">
@@ -7241,19 +7241,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
         <v>674.428562457161</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
         <v>507.4972331799365</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U40" t="n">
-        <v>1009.867621687013</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V40" t="n">
-        <v>755.1831334811264</v>
+        <v>965.2084601534104</v>
       </c>
       <c r="W40" t="n">
-        <v>465.7659634441658</v>
+        <v>675.7912901164499</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>447.8017392184325</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7420,43 +7420,43 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="42">
@@ -7478,19 +7478,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
         <v>674.428562457161</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>268.0733921265328</v>
+        <v>582.2416896507654</v>
       </c>
       <c r="C43" t="n">
-        <v>268.0733921265328</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D43" t="n">
-        <v>268.0733921265328</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E43" t="n">
-        <v>268.0733921265328</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F43" t="n">
-        <v>268.0733921265328</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
         <v>507.4972331799365</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1187.921157035281</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U43" t="n">
-        <v>1187.921157035281</v>
+        <v>1126.343347893613</v>
       </c>
       <c r="V43" t="n">
-        <v>1187.921157035281</v>
+        <v>871.6588596877259</v>
       </c>
       <c r="W43" t="n">
-        <v>898.50398699832</v>
+        <v>582.2416896507654</v>
       </c>
       <c r="X43" t="n">
-        <v>670.5144361003026</v>
+        <v>582.2416896507654</v>
       </c>
       <c r="Y43" t="n">
-        <v>449.7218569567725</v>
+        <v>582.2416896507654</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7715,19 +7715,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
         <v>674.428562457161</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
         <v>507.4972331799365</v>
@@ -7836,22 +7836,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.210845262961</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1070.431038902515</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>815.7465506966282</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>815.7465506966282</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>815.7465506966282</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>594.9539715530981</v>
       </c>
     </row>
   </sheetData>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>423.337678916511</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627446</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9014,10 +9014,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229573</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>423.337678916511</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>85.30006332127742</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>277.6717966208058</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -23427,13 +23427,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>192.8130786476576</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>67.67958399613198</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>51.40339534586003</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>78.82781133359552</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>185.2331835502355</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338525</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>120.6167984817486</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,16 +24420,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>27.48997908012859</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338525</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24603,25 +24603,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>84.59001010593055</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>198.1538069449789</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>82.39383318338511</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>158.8051956154447</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>120.6167984817485</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>103.0576765518769</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>89.134370630886</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>231.5518244803471</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>79.43092547709077</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>107.7650762680651</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>138.9377200193195</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,13 +26031,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26076,22 +26076,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338511</v>
+        <v>59.95778304334684</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>730532.6984801932</v>
+        <v>730532.6984801933</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>730532.6984801932</v>
+        <v>730532.698480193</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>730532.6984801932</v>
+        <v>730532.6984801933</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>730532.6984801933</v>
+        <v>730532.6984801932</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="E2" t="n">
-        <v>645197.9485672197</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="F2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672192</v>
       </c>
       <c r="G2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="H2" t="n">
         <v>645197.9485672197</v>
       </c>
       <c r="I2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="J2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672197</v>
       </c>
       <c r="K2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672192</v>
       </c>
       <c r="L2" t="n">
         <v>645197.9485672194</v>
       </c>
       <c r="M2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="N2" t="n">
+        <v>645197.9485672193</v>
+      </c>
+      <c r="O2" t="n">
         <v>645197.9485672195</v>
       </c>
-      <c r="O2" t="n">
-        <v>645197.9485672194</v>
-      </c>
       <c r="P2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672195</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
-        <v>3.998865167886834e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007441</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7916.731656007481</v>
+      </c>
+      <c r="G4" t="n">
         <v>7916.731656007483</v>
-      </c>
-      <c r="F4" t="n">
-        <v>7916.731656007401</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7916.731656007413</v>
       </c>
       <c r="H4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007481</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007481</v>
+        <v>7916.731656007401</v>
       </c>
       <c r="K4" t="n">
         <v>7916.73165600748</v>
@@ -26450,16 +26450,16 @@
         <v>7916.731656007483</v>
       </c>
       <c r="M4" t="n">
+        <v>7916.73165600742</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7916.731656007417</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7916.731656007416</v>
+      </c>
+      <c r="P4" t="n">
         <v>7916.731656007483</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7916.731656007481</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7916.73165600748</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7916.73165600748</v>
       </c>
     </row>
     <row r="5">
@@ -26475,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871667</v>
       </c>
-      <c r="G5" t="n">
+      <c r="K5" t="n">
         <v>91987.32594871667</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871665</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-143384.5458558415</v>
+        <v>-143384.5458558414</v>
       </c>
       <c r="C6" t="n">
-        <v>446583.3333587031</v>
+        <v>446583.3333587033</v>
       </c>
       <c r="D6" t="n">
-        <v>446583.3333587033</v>
+        <v>446583.3333587032</v>
       </c>
       <c r="E6" t="n">
-        <v>19159.26322587777</v>
+        <v>20036.39535962668</v>
       </c>
       <c r="F6" t="n">
-        <v>544319.2997027733</v>
+        <v>545196.431836523</v>
       </c>
       <c r="G6" t="n">
-        <v>544319.2997027736</v>
+        <v>545196.4318365233</v>
       </c>
       <c r="H6" t="n">
-        <v>544319.2997027738</v>
+        <v>545196.4318365235</v>
       </c>
       <c r="I6" t="n">
-        <v>544319.2997027738</v>
+        <v>545196.4318365231</v>
       </c>
       <c r="J6" t="n">
-        <v>367896.0805101807</v>
+        <v>368773.2126439304</v>
       </c>
       <c r="K6" t="n">
-        <v>544319.2997027738</v>
+        <v>545196.4318365229</v>
       </c>
       <c r="L6" t="n">
-        <v>544319.2997027737</v>
+        <v>545196.4318365232</v>
       </c>
       <c r="M6" t="n">
-        <v>409518.2844689364</v>
+        <v>410395.4166026858</v>
       </c>
       <c r="N6" t="n">
-        <v>544319.2997027738</v>
+        <v>545196.4318365231</v>
       </c>
       <c r="O6" t="n">
-        <v>544319.2997027737</v>
+        <v>545196.4318365233</v>
       </c>
       <c r="P6" t="n">
-        <v>544319.2997027737</v>
+        <v>545196.4318365233</v>
       </c>
     </row>
   </sheetData>
@@ -26740,19 +26740,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541004</v>
@@ -26795,43 +26795,43 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
     </row>
   </sheetData>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>96.90109786623003</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>180.5201294259866</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>167.6288530264334</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>138.6893312877795</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>120.1051426060689</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>77.26104417911316</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>78.46362273233859</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>22.06054906505699</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>46.83478528866331</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>39.25609903107579</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-9.379164112033322e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
         <v>34.18755300444946</v>
@@ -32247,13 +32247,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647497</v>
@@ -32268,7 +32268,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32323,7 +32323,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813463</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
         <v>45.03122946298631</v>
@@ -32396,10 +32396,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
         <v>234.725964217132</v>
@@ -32408,7 +32408,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32420,13 +32420,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35661,7 +35661,7 @@
         <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951466</v>
       </c>
       <c r="P14" t="n">
         <v>570.6060255109126</v>
@@ -35734,10 +35734,10 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734237</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411083</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
@@ -35895,19 +35895,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>127.2102422761841</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005179</v>
@@ -35974,19 +35974,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523304</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686868</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056037</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>526.9295015768301</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504664</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
         <v>803.580930408112</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.580930408112</v>
